--- a/Mobility Hardware Report 01.16.2026.xlsx
+++ b/Mobility Hardware Report 01.16.2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29711"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tmobileusa-my.sharepoint.com/personal/george_gewinner_t-mobile_com/Documents/Desktop/GitHub/AE Inventory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://computacenter-my.sharepoint.com/personal/mike_farnam_computacenter_com/Documents/Prosys_Bothell/Quotes/T-Mobile Retail/Docs/Reports/Weekly Inv Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE5BB182-6C62-4256-BA53-27F22B30AF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{BC5A7AAA-CA50-4FB5-9649-11013FA818E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDF10014-26A6-47A2-9542-1A28F77B21E1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F824A26B-9877-438A-A25E-6200FC2FAFD0}"/>
+    <workbookView xWindow="48240" yWindow="2190" windowWidth="31515" windowHeight="16440" xr2:uid="{F824A26B-9877-438A-A25E-6200FC2FAFD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AE Dispose List'!$A$1:$H$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$A$10:$T$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,175 +43,184 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="328">
   <si>
-    <t>Prosys has not been asked to procure yet</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Charger Dock</t>
-  </si>
-  <si>
-    <t>RUGGED CASE FOR LP7I IN GRAY/BLACK COMBO</t>
-  </si>
-  <si>
-    <t>CS-LP7IF</t>
-  </si>
-  <si>
-    <t>Infinite Peripherals</t>
-  </si>
-  <si>
-    <t>Scanner Case</t>
-  </si>
-  <si>
-    <t>LINEA PRO 7 INDUSTRIAL 2D</t>
-  </si>
-  <si>
-    <t>Scanner</t>
-  </si>
-  <si>
-    <t>IPHONE SE 64GB BLK SIM</t>
-  </si>
-  <si>
-    <t>MX9N2LL/A</t>
+    <t>Pool Type</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Computacenter Definition</t>
+  </si>
+  <si>
+    <t>Depot Pool</t>
+  </si>
+  <si>
+    <t>Depot stock held at A/E vendor specifically designated for A/E use</t>
+  </si>
+  <si>
+    <t>Cabot warehouse AE usable stock - should have 1 month of stock in AE</t>
+  </si>
+  <si>
+    <t>Deployment Pool</t>
+  </si>
+  <si>
+    <t>Stock moving through Computacenter or Connection that has been assigned a final store destination</t>
+  </si>
+  <si>
+    <t>Material assigned &amp; in process at Computacenter not but shipped out yet</t>
+  </si>
+  <si>
+    <t>New/Remodel Pool</t>
+  </si>
+  <si>
+    <t>Stock moving through Computacenter or Connection that has been assigned a final store destination. Future commitment</t>
+  </si>
+  <si>
+    <t>Product assigned to project, new stores, or remodels</t>
+  </si>
+  <si>
+    <t>Safety Pool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Stock - reserved for emergent needs in Depot, Deployment or New/Remodel Pool. Does NOT include Event BIN or Trainer BIN material. </t>
+  </si>
+  <si>
+    <t>All unallocated/available material in T-Mobile customer owned BINs - Managed by Kyle Thompson</t>
+  </si>
+  <si>
+    <t>Vendor Owned</t>
+  </si>
+  <si>
+    <t>Stock at Computacenter but not billed to T-Mobile yet</t>
+  </si>
+  <si>
+    <t>Material requested to order by T-Mobile but not billed to T-Mobile yet</t>
+  </si>
+  <si>
+    <t>Refurbished Pool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock returned from Decomms - functioning and deemed usable </t>
+  </si>
+  <si>
+    <t>Decomm stock that is functioning and can be re-used</t>
+  </si>
+  <si>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Computacenter Device Type</t>
+  </si>
+  <si>
+    <t>MFR</t>
+  </si>
+  <si>
+    <t>Part#</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Total Count</t>
+  </si>
+  <si>
+    <t>Date Vendor Stock Received</t>
+  </si>
+  <si>
+    <t>Comments/Repairs Processing</t>
+  </si>
+  <si>
+    <t>On Hand</t>
+  </si>
+  <si>
+    <t>On Order</t>
+  </si>
+  <si>
+    <t>REMO Kit</t>
+  </si>
+  <si>
+    <t>MPD</t>
+  </si>
+  <si>
+    <t>Ingenico</t>
+  </si>
+  <si>
+    <t>P8F506-09215A</t>
+  </si>
+  <si>
+    <t>MOBY8500 MPOS READER</t>
+  </si>
+  <si>
+    <t>MPD CL2</t>
+  </si>
+  <si>
+    <t>MOBY85-USPIS09A</t>
+  </si>
+  <si>
+    <t>MOBY85-USPIS09A PROD MOBY/8500 CL2 DEVICE</t>
+  </si>
+  <si>
+    <t>MPD E235</t>
+  </si>
+  <si>
+    <t>VeriFone</t>
+  </si>
+  <si>
+    <t>M194-064-03-NAB-6</t>
+  </si>
+  <si>
+    <t>E235, NA, WW 4G, WIFI AC/BT/USB WITH MFI, NO PSU, 512/512MB, NO PTID, EBS 100, PCI 6.1 - BLACK</t>
+  </si>
+  <si>
+    <t>2k from Safety Stock shipped to VeriFone for screening</t>
+  </si>
+  <si>
+    <t>MPD Battery</t>
+  </si>
+  <si>
+    <t>PC02000163</t>
+  </si>
+  <si>
+    <t>PC02000163 - MPD REPLACEMENT BATTERY</t>
+  </si>
+  <si>
+    <t>MPD Case</t>
+  </si>
+  <si>
+    <t>Mophie</t>
+  </si>
+  <si>
+    <t>MOBY MPD CASE REMO</t>
+  </si>
+  <si>
+    <t>MPD Case Gen 2</t>
+  </si>
+  <si>
+    <t>MOPHIE E235 CASE FOR T-MOBILE MPOS DEVICE</t>
+  </si>
+  <si>
+    <t>iPad Gen1</t>
+  </si>
+  <si>
+    <t>iPad Pro 11in Gen1</t>
   </si>
   <si>
     <t>Apple</t>
   </si>
   <si>
-    <t>MOPHIE-REMO-MAGNETIC BELT CLIP- MOBY8500 - BLACK-TMOBILE GEN 2</t>
-  </si>
-  <si>
-    <t>Mophie</t>
-  </si>
-  <si>
-    <t>Belt Clip</t>
-  </si>
-  <si>
-    <t>MOPHIE-CASES-REMO-APPLE-IPAD PRO 11 (2020) BLACK- T-MOBILE LOGO</t>
-  </si>
-  <si>
-    <t>MOBY MPD CASE REMO</t>
-  </si>
-  <si>
-    <t>MPD Case</t>
-  </si>
-  <si>
-    <t>MOBY8500 MPOS READER</t>
-  </si>
-  <si>
-    <t>P8F506-09215A</t>
-  </si>
-  <si>
-    <t>Ingenico</t>
-  </si>
-  <si>
-    <t>Safety Pool</t>
-  </si>
-  <si>
-    <t>New/Remodel Pool</t>
-  </si>
-  <si>
-    <t>Deployment Pool</t>
-  </si>
-  <si>
-    <t>Depot Pool</t>
-  </si>
-  <si>
-    <t>Total Count</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>MFR</t>
-  </si>
-  <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE 10.5-INCH IPAD AIR WI-FI - 3RD GENERATION - TABLET </t>
-  </si>
-  <si>
-    <t>Pool Type</t>
-  </si>
-  <si>
-    <t>Depot stock held at A/E vendor specifically designated for A/E use</t>
-  </si>
-  <si>
-    <t>Date Vendor Stock Received</t>
-  </si>
-  <si>
-    <t>Vendor Owned</t>
-  </si>
-  <si>
-    <t>All unallocated/available material in T-Mobile customer owned BINs - Managed by Kyle Thompson</t>
-  </si>
-  <si>
-    <t>Refurbished Pool</t>
-  </si>
-  <si>
-    <t>On Hand</t>
-  </si>
-  <si>
-    <t>On Order</t>
-  </si>
-  <si>
-    <t>Material requested to order by T-Mobile but not billed to T-Mobile yet</t>
-  </si>
-  <si>
-    <t>Decomm stock that is functioning and can be re-used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stock returned from Decomms - functioning and deemed usable </t>
-  </si>
-  <si>
-    <t>REMO Kit</t>
-  </si>
-  <si>
-    <t>iPad Case Gen2</t>
-  </si>
-  <si>
-    <t>iPad Case Gen1</t>
-  </si>
-  <si>
-    <t>REMO Accessory</t>
-  </si>
-  <si>
-    <t>Stylus</t>
-  </si>
-  <si>
-    <t>Tech Sling</t>
-  </si>
-  <si>
-    <t>Fanny Pack</t>
-  </si>
-  <si>
-    <t>TIMO Kit</t>
-  </si>
-  <si>
-    <t>HC Bundle</t>
-  </si>
-  <si>
-    <t>iPad Cable</t>
-  </si>
-  <si>
-    <t>MPD Cable</t>
-  </si>
-  <si>
-    <t>SSR</t>
-  </si>
-  <si>
-    <t>Kit</t>
-  </si>
-  <si>
-    <t>Trims Unlimited</t>
-  </si>
-  <si>
-    <t>CUSTOM T-MOBILE STYLUS PEN</t>
+    <t>MU162LL/A</t>
+  </si>
+  <si>
+    <t>APPLE 11-INCH IPAD PRO WI-FI   CELLULAR - TABLET - 256 GB-11" IPS (238 X 1668)-4G-LTE-SPACE</t>
+  </si>
+  <si>
+    <t>iPad Gen2</t>
+  </si>
+  <si>
+    <t>iPad Pro 11in Gen2</t>
   </si>
   <si>
     <t>MY332LL/A</t>
@@ -258,190 +267,220 @@
     </r>
   </si>
   <si>
+    <t>iPad Gen3</t>
+  </si>
+  <si>
+    <t>iPad Pro 11in Gen3</t>
+  </si>
+  <si>
+    <t>MHMT3LL/A</t>
+  </si>
+  <si>
+    <t>IPAD PRO 11 WF CL 128GB GRY-USA</t>
+  </si>
+  <si>
+    <t>iPad Gen4</t>
+  </si>
+  <si>
+    <t>iPad Pro 11in Gen4</t>
+  </si>
+  <si>
+    <t>MP553LL/A</t>
+  </si>
+  <si>
+    <t>11IN IPAD PRO WLS CELL 128GB SPACE GRAY 2022 RELEASE</t>
+  </si>
+  <si>
+    <t>iPad Gen5</t>
+  </si>
+  <si>
+    <t>iPad Air Gen4</t>
+  </si>
+  <si>
+    <t>MUXH3LL/A</t>
+  </si>
+  <si>
+    <t>11-inch iPad Air (M2) Wi-Fi + Cellular 256GB - Space Gray</t>
+  </si>
+  <si>
+    <t>iPad Gen6</t>
+  </si>
+  <si>
+    <t>iPad Air Gen5</t>
+  </si>
+  <si>
+    <t>MCG04LL/A</t>
+  </si>
+  <si>
+    <t>11-INCH IPAD AIR (M3) WI-FI   CELLULAR 256GB - SPACE GRAY</t>
+  </si>
+  <si>
+    <t>iPad Case Gen1</t>
+  </si>
+  <si>
+    <t>iPad Pro 11in Case Gen 1</t>
+  </si>
+  <si>
+    <t>MOPHIE-CASES-REMO-APPLE-IPAD PRO 11</t>
+  </si>
+  <si>
+    <t>iPad Case Gen2</t>
+  </si>
+  <si>
+    <t>iPad Pro 11in Case Gen 2</t>
+  </si>
+  <si>
+    <t>MOPHIE-CASES-REMO-APPLE-IPAD PRO 11 (2020) BLACK- T-MOBILE LOGO</t>
+  </si>
+  <si>
+    <t>iPad Case Gen3</t>
+  </si>
+  <si>
+    <t>iPad Pro 11in Case Gen 3</t>
+  </si>
+  <si>
+    <t>MOPHIE-CASES-REMO-APPLE-IPAD PRO 11 (2021) BLACK W KICKSTAND - T-MOBILE LOGO</t>
+  </si>
+  <si>
+    <t>iPad Case Gen4</t>
+  </si>
+  <si>
+    <t>iPad Case Gen 4</t>
+  </si>
+  <si>
+    <t>Mobile point of sale case made for iPad Pro 11" (Gen 1-4)/Air 11" M2, T-Mobile Logo</t>
+  </si>
+  <si>
+    <t>Metronet</t>
+  </si>
+  <si>
+    <t>iPad Case M3</t>
+  </si>
+  <si>
+    <t>Otterbox</t>
+  </si>
+  <si>
+    <t>77-95220</t>
+  </si>
+  <si>
+    <t>OtterBox Defender Case Blk 11" for iPad</t>
+  </si>
+  <si>
+    <t>FLM Kit</t>
+  </si>
+  <si>
+    <t>FLM Folio</t>
+  </si>
+  <si>
+    <t>FLM Keyboard Case Gen 2</t>
+  </si>
+  <si>
+    <t>MXNK2LL/A</t>
+  </si>
+  <si>
+    <t>Apple Smart - keyboard and folio case - English</t>
+  </si>
+  <si>
+    <t>REMO Accessory</t>
+  </si>
+  <si>
+    <t>Belt Clip</t>
+  </si>
+  <si>
+    <t>MOPHIE-REMO-MAGNETIC BELT CLIP- MOBY8500 - BLACK-TMOBILE GEN 2</t>
+  </si>
+  <si>
+    <t>Stylus</t>
+  </si>
+  <si>
+    <t>Trims Unlimited</t>
+  </si>
+  <si>
     <t>STYLUS02-1</t>
   </si>
   <si>
-    <t>iPad Gen1</t>
-  </si>
-  <si>
-    <t>iPad Gen2</t>
-  </si>
-  <si>
-    <t>iPad Gen3</t>
-  </si>
-  <si>
-    <t>iPad Case Gen3</t>
-  </si>
-  <si>
-    <t>APPLE 11-INCH IPAD PRO WI-FI   CELLULAR - TABLET - 256 GB-11" IPS (238 X 1668)-4G-LTE-SPACE</t>
-  </si>
-  <si>
-    <t>MOPHIE-CASES-REMO-APPLE-IPAD PRO 11 (2021) BLACK W KICKSTAND - T-MOBILE LOGO</t>
-  </si>
-  <si>
-    <t>IPAD PRO 11 WF CL 128GB GRY-USA</t>
-  </si>
-  <si>
-    <t>MU162LL/A</t>
-  </si>
-  <si>
-    <t>MHMT3LL/A</t>
-  </si>
-  <si>
-    <t>TMCABINET</t>
-  </si>
-  <si>
-    <t>Bretford</t>
-  </si>
-  <si>
-    <t>Bretford Health Charger Cabinet</t>
-  </si>
-  <si>
-    <t>Bretford Health Charger Drawer</t>
-  </si>
-  <si>
-    <t>TMDRAWER8PRO11</t>
-  </si>
-  <si>
-    <t>iPad Charging Cable</t>
-  </si>
-  <si>
-    <t>TMUSBC-PRO</t>
-  </si>
-  <si>
-    <t>Bretford Health Charger Cart</t>
-  </si>
-  <si>
-    <t>TMCART-PRO</t>
-  </si>
-  <si>
-    <t>MPD Charging Cable</t>
-  </si>
-  <si>
-    <t>TMMICRO-REMO</t>
-  </si>
-  <si>
-    <t>Cabinet Gen 1</t>
-  </si>
-  <si>
-    <t>Rolling Cart Gen 1</t>
-  </si>
-  <si>
-    <t>Cabinet Gen 2</t>
-  </si>
-  <si>
-    <t>iPad Cable Gen 2</t>
-  </si>
-  <si>
-    <t>CDC</t>
-  </si>
-  <si>
-    <t>CDC Full Kit</t>
-  </si>
-  <si>
-    <t>RASPPI3B+</t>
-  </si>
-  <si>
-    <t>RASPPIOLED</t>
-  </si>
-  <si>
-    <t>RASPPISMOKEBASE</t>
-  </si>
-  <si>
-    <t>RASPPIPS5V</t>
-  </si>
-  <si>
-    <t>SDCS2/32GB</t>
-  </si>
-  <si>
-    <t>Cable x2 - 28103</t>
-  </si>
-  <si>
-    <t>Rolling Cart Gen 2</t>
-  </si>
-  <si>
-    <t>Drawer JB554-CW1820</t>
-  </si>
-  <si>
-    <t>Drawer T441-7-CW1616</t>
-  </si>
-  <si>
-    <t>Cable - 15189</t>
-  </si>
-  <si>
-    <t>TMPSPCAB</t>
-  </si>
-  <si>
-    <t>BRETFORD : PS PRO CABINET, GEN 2, T-MOBILE</t>
-  </si>
-  <si>
-    <t>CAB-MICRO10</t>
-  </si>
-  <si>
-    <t>10 PACK OF CABLES FOR INGENICO MPD</t>
-  </si>
-  <si>
-    <t>MK663LL/A</t>
-  </si>
-  <si>
-    <t>10.2-INCH IPAD WI-FI   CELLULAR 64GB - SPACE GRAY 9TH GEN</t>
-  </si>
-  <si>
-    <t>BRETFORD : PS Pro Cart, Gen 2, T-Mobile</t>
-  </si>
-  <si>
-    <t>TMPSPCART</t>
-  </si>
-  <si>
-    <t>iPad Gen4</t>
-  </si>
-  <si>
-    <t>MP553LL/A</t>
-  </si>
-  <si>
-    <t>11IN IPAD PRO WLS CELL 128GB SPACE GRAY 2022 RELEASE</t>
-  </si>
-  <si>
-    <t>Prosys Device Type</t>
-  </si>
-  <si>
-    <t>MPD</t>
-  </si>
-  <si>
-    <t>iPad Pro 11in Gen1</t>
-  </si>
-  <si>
-    <t>iPad Pro 11in Gen2</t>
-  </si>
-  <si>
-    <t>iPad Pro 11in Gen3</t>
-  </si>
-  <si>
-    <t>iPad Pro 11in Gen4</t>
-  </si>
-  <si>
-    <t>iPad Pro 11in Case Gen 1</t>
-  </si>
-  <si>
-    <t>iPad Pro 11in Case Gen 2</t>
-  </si>
-  <si>
-    <t>iPad Pro 11in Case Gen 3</t>
+    <t>CUSTOM T-MOBILE STYLUS PEN</t>
+  </si>
+  <si>
+    <t>Tech Sling</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Computacenter has not been asked to procure yet</t>
+  </si>
+  <si>
+    <t>Fanny Pack</t>
+  </si>
+  <si>
+    <t>TIMO Kit</t>
+  </si>
+  <si>
+    <t>iPhone 16</t>
+  </si>
+  <si>
+    <t>MYAP3LL/A</t>
+  </si>
+  <si>
+    <t>IPHONE 16 128GB  BLACK</t>
+  </si>
+  <si>
+    <t>iPhone SE V3</t>
+  </si>
+  <si>
+    <t>iPhone SE Gen3</t>
+  </si>
+  <si>
+    <t>MMX53LL/A</t>
+  </si>
+  <si>
+    <t>IPHONE SE 64GB MIDNIGHT</t>
+  </si>
+  <si>
+    <t>iPhone SE V2</t>
   </si>
   <si>
     <t>iPhone SE Gen2</t>
   </si>
   <si>
-    <t>iPad Cable Gen 1</t>
-  </si>
-  <si>
-    <t>MPD Cable Gen 1</t>
-  </si>
-  <si>
-    <t>SSR iPad Air 10.5in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Stock - reserved for emergent needs in Depot, Deployment or New/Remodel Pool. Does NOT include Event BIN or Trainer BIN material. </t>
+    <t>MX9N2LL/A</t>
+  </si>
+  <si>
+    <t>IPHONE SE 64GB BLK SIM</t>
+  </si>
+  <si>
+    <t>iPhone 8</t>
+  </si>
+  <si>
+    <t>MQ6Y2LL/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPhone 8 64GB </t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>Infinite Peripherals</t>
+  </si>
+  <si>
+    <t>LP7I-ZS2D-PHSE</t>
+  </si>
+  <si>
+    <t>LINEA PRO 7 INDUSTRIAL 2D</t>
+  </si>
+  <si>
+    <t>Scanner Case</t>
+  </si>
+  <si>
+    <t>CS-LP7IF</t>
+  </si>
+  <si>
+    <t>RUGGED CASE FOR LP7I IN GRAY/BLACK COMBO</t>
+  </si>
+  <si>
+    <t>Charger Dock</t>
   </si>
   <si>
     <t>PSLP1-BAT1-LP7IF</t>
@@ -450,433 +489,7 @@
     <t>LINEA  PRO 7 CHARGER WITH SPARE BATTERY CHARGER</t>
   </si>
   <si>
-    <t>APPLE MAC MINI MRTT2LL/A 3.0GHZ INTEL CORE I5 256GB SSD 8GB RAM - SPACE GRAY - 2018</t>
-  </si>
-  <si>
-    <t>MRTT2LL/A</t>
-  </si>
-  <si>
-    <t>HSI iPad Gen 9</t>
-  </si>
-  <si>
-    <t>Device Wizard</t>
-  </si>
-  <si>
-    <t>Dell Headless PC 7080</t>
-  </si>
-  <si>
-    <t>Dell Headless PC 7090</t>
-  </si>
-  <si>
-    <t>Dell Headless PC 7000</t>
-  </si>
-  <si>
-    <t>Power strip</t>
-  </si>
-  <si>
-    <t>cat5 cables</t>
-  </si>
-  <si>
-    <t>Velcro</t>
-  </si>
-  <si>
-    <t>TLP606B</t>
-  </si>
-  <si>
-    <t>P350-10N-10</t>
-  </si>
-  <si>
-    <t>MCG-24633</t>
-  </si>
-  <si>
-    <t>Desktop Gen1</t>
-  </si>
-  <si>
-    <t>Desktop Gen2</t>
-  </si>
-  <si>
-    <t>Desktop Gen3</t>
-  </si>
-  <si>
-    <t>210-AVLL</t>
-  </si>
-  <si>
-    <t>210-AYVH</t>
-  </si>
-  <si>
-    <t>210-BDEJ</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>OPTIPLEX 7080 MFF XCTO</t>
-  </si>
-  <si>
-    <t>OPTIPLEX 7090 MICRO</t>
-  </si>
-  <si>
-    <t>OPTIPLEX 7000 MICRO</t>
-  </si>
-  <si>
-    <t>MCE</t>
-  </si>
-  <si>
-    <t>MCE HUB KIT INCLUDES:1X MCE HUB, 1X MCE HUB POWER ADAPTER, 1X HUB TO PC CABLE - TRIFECTA</t>
-  </si>
-  <si>
-    <t>Device Wizard - CHARGE CABLE - 18IN USB 3-IN-1 TO USB-A TPE BLA</t>
-  </si>
-  <si>
-    <t>MCG</t>
-  </si>
-  <si>
-    <t>Tripp Lite</t>
-  </si>
-  <si>
-    <t>Ortronics</t>
-  </si>
-  <si>
-    <t>OR-570-110-015</t>
-  </si>
-  <si>
-    <t>Tripp Lite 10in Hook and Loop Velcro Cable Management Ties 10-pack 10pc 10" - Cable tie - 9.8 in - black</t>
-  </si>
-  <si>
-    <t>6 WAY POWER STRIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3FT CAT5E 350MHZ BTD PATCH CBL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15FT CAT5E 350MHZ BTD PATCH CBL </t>
-  </si>
-  <si>
-    <t>MPD Battery</t>
-  </si>
-  <si>
-    <t>PC02000163</t>
-  </si>
-  <si>
-    <t>PC02000163 - MPD REPLACEMENT BATTERY</t>
-  </si>
-  <si>
-    <t>USB-C Cable - USB 3.0</t>
-  </si>
-  <si>
-    <t>APL-2 (Apple lightning)</t>
-  </si>
-  <si>
-    <t>MINI-3 Micro-USB Cable</t>
-  </si>
-  <si>
-    <t>Replacement 3in1 Cable</t>
-  </si>
-  <si>
-    <t>OR-570-110-003</t>
-  </si>
-  <si>
-    <t>iPhone SE V3</t>
-  </si>
-  <si>
-    <t>iPhone SE V2</t>
-  </si>
-  <si>
-    <t>iPhone 8</t>
-  </si>
-  <si>
-    <t>L-Comm</t>
-  </si>
-  <si>
-    <t>CAPUSB-A</t>
-  </si>
-  <si>
-    <t>USB Protective Cover for Type A Jacks, Package of 10</t>
-  </si>
-  <si>
-    <t>iPhone SE Gen3</t>
-  </si>
-  <si>
-    <t>MQ6Y2LL/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iPhone 8 64GB </t>
-  </si>
-  <si>
-    <t>MMX53LL/A</t>
-  </si>
-  <si>
-    <t>Mac Mini M2</t>
-  </si>
-  <si>
-    <t>Mac Mini 2020</t>
-  </si>
-  <si>
-    <t>Mac Mini 2018</t>
-  </si>
-  <si>
-    <t>Z16K000R8</t>
-  </si>
-  <si>
-    <t>CTO MAC MINI M2 8C 10G 16GB 512GB - Gigabit Ethernet</t>
-  </si>
-  <si>
-    <t>APPLE MAC MINI M1 Chip (8GB RAM, 256GB SSD Storage) - 2020</t>
-  </si>
-  <si>
-    <t>MGNR3LL/A</t>
-  </si>
-  <si>
-    <t>SSR Tablet iPad Air G3</t>
-  </si>
-  <si>
-    <t>MPD CL2</t>
-  </si>
-  <si>
-    <t>MOBY85-USPIS09A</t>
-  </si>
-  <si>
-    <t>MOBY85-USPIS09A PROD MOBY/8500 CL2 DEVICE</t>
-  </si>
-  <si>
-    <t>Desktop Gen4</t>
-  </si>
-  <si>
-    <t>210-BFXT</t>
-  </si>
-  <si>
-    <t>OptiPlex Micro (Plus 7010)</t>
-  </si>
-  <si>
-    <t>Dell Headless PC 7010</t>
-  </si>
-  <si>
-    <t>Gen 1 2-Drawer Cart</t>
-  </si>
-  <si>
-    <t>Gen 2 2-Drawer Cart</t>
-  </si>
-  <si>
-    <t>Gen 1 3-Drawer Cart</t>
-  </si>
-  <si>
-    <t>Gen 2 3-drawer Cart</t>
-  </si>
-  <si>
-    <t>TMPSPCART-3SHLF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRETFORD : PS Pro Cart, Gen 2, 3-shelf </t>
-  </si>
-  <si>
-    <t>Rolling Cart 3-Drawer Gen 1</t>
-  </si>
-  <si>
-    <t>Rolling Cart 3-Drawer Gen 2</t>
-  </si>
-  <si>
-    <t>Gen 2 Cabinet</t>
-  </si>
-  <si>
-    <t>Gen 1 HC</t>
-  </si>
-  <si>
-    <t>Gen 2 HC</t>
-  </si>
-  <si>
-    <t>HSI/SSR iPad 10.2in</t>
-  </si>
-  <si>
-    <t>TMPSPT20L</t>
-  </si>
-  <si>
-    <t>BRETFORD : PS Pro Gen 2 Smart Hub 20L, T-Mobile Includes:QTY 1 - TMCAB-USB72, QTY 1 - TMCAB-USB72-BC</t>
-  </si>
-  <si>
-    <t>USB port covers</t>
-  </si>
-  <si>
-    <t>FLM Kit</t>
-  </si>
-  <si>
-    <t>FLM Keyboard Case Gen 2</t>
-  </si>
-  <si>
-    <t>FLM Folio</t>
-  </si>
-  <si>
-    <t>Apple Smart - keyboard and folio case - English</t>
-  </si>
-  <si>
-    <t>MXNK2LL/A</t>
-  </si>
-  <si>
-    <t>IPHONE SE 64GB MIDNIGHT</t>
-  </si>
-  <si>
-    <t>Thin Client</t>
-  </si>
-  <si>
-    <t>Keyboard &amp; Mouse</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>LOGITECH</t>
-  </si>
-  <si>
-    <t>WYSE 5070 THIN CLIENT</t>
-  </si>
-  <si>
-    <t>LOGITECH MX KEYS COMBO FOR BUSINESS KEYBOARD &amp; MOUSE - USB WIRELESS BLUETOOTH KEYBOARD - USB WIRELES</t>
-  </si>
-  <si>
-    <t>22" USB-C MONITOR 54.6CM (21.5") - INCLUDES 3YR WARRANTY</t>
-  </si>
-  <si>
-    <t>920-010923</t>
-  </si>
-  <si>
-    <t>P2223HC</t>
-  </si>
-  <si>
-    <t>OR-576-135-005</t>
-  </si>
-  <si>
-    <t>OR-576-135-010</t>
-  </si>
-  <si>
-    <t>Cable</t>
-  </si>
-  <si>
-    <t>USB-A to USB-C Adapter</t>
-  </si>
-  <si>
-    <t>ORTRONICS</t>
-  </si>
-  <si>
-    <t>3/4 in. Black Lineal VELCRO® Brand ONE-WRAP® on 25YD rolls</t>
-  </si>
-  <si>
-    <t>TRIPP LITE USB-C TO USB-A ADAPTER (F/M), USB 3.2 GEN 2 (10 GBPS) - USB ADAPTER - 24 PIN USB-C (F) TO</t>
-  </si>
-  <si>
-    <t>5FT CAT6 BTD PATCH cable Black</t>
-  </si>
-  <si>
-    <t>10FT CAT6 BTD PATCH  cable Black</t>
-  </si>
-  <si>
-    <t>U329-000-10G</t>
-  </si>
-  <si>
-    <t>Comments/Repairs Processing</t>
-  </si>
-  <si>
-    <t>C2G</t>
-  </si>
-  <si>
-    <t>MCE USB-C 2.0 CABLE 60CM</t>
-  </si>
-  <si>
-    <t>VeriFone</t>
-  </si>
-  <si>
-    <t>M194-064-03-NAB-6</t>
-  </si>
-  <si>
-    <t>E235, NA, WW 4G, WIFI AC/BT/USB WITH MFI, NO PSU, 512/512MB, NO PTID, EBS 100, PCI 6.1 - BLACK</t>
-  </si>
-  <si>
-    <t>MPD Case Gen 2</t>
-  </si>
-  <si>
-    <t>MPD E235</t>
-  </si>
-  <si>
-    <t>MOPHIE E235 CASE FOR T-MOBILE MPOS DEVICE</t>
-  </si>
-  <si>
-    <t>YubiKey</t>
-  </si>
-  <si>
-    <t>Yubico</t>
-  </si>
-  <si>
-    <t>SECURITY KEY C NFC BLACK BY YUBICO - USB-C, INDIVIDUAL BLISTER PACKAGING. FIRMWARE 5.7</t>
-  </si>
-  <si>
-    <t>MOPHIE-CASES-REMO-APPLE-IPAD PRO 11</t>
-  </si>
-  <si>
-    <t>LP7I-ZS2D-PHSE</t>
-  </si>
-  <si>
-    <t>DELL 22 MONITOR - P2225H</t>
-  </si>
-  <si>
-    <t>10FT C2G DISPLAYPORT CABLE M/M BLK</t>
-  </si>
-  <si>
-    <t>10ft Displayport Cable</t>
-  </si>
-  <si>
-    <t>210-BKXM</t>
-  </si>
-  <si>
-    <t>Desktop Gen5</t>
-  </si>
-  <si>
-    <t>Dell Headless PC 7020</t>
-  </si>
-  <si>
-    <t>OPTIPLEX MICRO FORM FACTOR (7020)</t>
-  </si>
-  <si>
-    <t>CABLE APPLE LIGHTNING APL-2 - 60CM</t>
-  </si>
-  <si>
-    <t>iPad Gen5</t>
-  </si>
-  <si>
-    <t>iPad Air Gen4</t>
-  </si>
-  <si>
-    <t>iPad Case Gen4</t>
-  </si>
-  <si>
-    <t>MUXH3LL/A</t>
-  </si>
-  <si>
-    <t>11-inch iPad Air (M2) Wi-Fi + Cellular 256GB - Space Gray</t>
-  </si>
-  <si>
-    <t>Mobile point of sale case made for iPad Pro 11" (Gen 1-4)/Air 11" M2, T-Mobile Logo</t>
-  </si>
-  <si>
-    <t>MCG04LL/A</t>
-  </si>
-  <si>
-    <t>iPad Gen6</t>
-  </si>
-  <si>
-    <t>iPad Air Gen5</t>
-  </si>
-  <si>
-    <t>11-INCH IPAD AIR (M3) WI-FI   CELLULAR 256GB - SPACE GRAY</t>
-  </si>
-  <si>
-    <t>210-BCIJ</t>
-  </si>
-  <si>
-    <t>OptiPlex 3000 Thin Client</t>
-  </si>
-  <si>
-    <t>iPhone 16</t>
-  </si>
-  <si>
-    <t>MYAP3LL/A</t>
+    <t>Scanner V2</t>
   </si>
   <si>
     <t>LPR-ZS2D-PH6</t>
@@ -885,49 +498,7 @@
     <t>Linea Pro Rugged with Zebra SR 2D, for iPhone 16</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>iPad Case Gen 4</t>
-  </si>
-  <si>
-    <t>Cabot warehouse AE usable stock - should have 1 month of stock in AE</t>
-  </si>
-  <si>
-    <t>Product assigned to project, new stores, or remodels</t>
-  </si>
-  <si>
-    <t>Gen 1 Cabinet</t>
-  </si>
-  <si>
-    <t>USB HUBs</t>
-  </si>
-  <si>
-    <t>3-in-1 Cables</t>
-  </si>
-  <si>
-    <t>single cables</t>
-  </si>
-  <si>
-    <t>MUUQ2LL/A </t>
-  </si>
-  <si>
-    <t>Part#</t>
-  </si>
-  <si>
-    <t>817-BBBB</t>
-  </si>
-  <si>
-    <t>IPHONE 16 128GB  BLACK</t>
-  </si>
-  <si>
-    <t>Scanner V2</t>
-  </si>
-  <si>
     <t>Scanner Case V2</t>
-  </si>
-  <si>
-    <t>Charger Dock V2</t>
   </si>
   <si>
     <t>PSLP1-LPR1516F</t>
@@ -937,6 +508,9 @@
 Case</t>
   </si>
   <si>
+    <t>Charger Dock V2</t>
+  </si>
+  <si>
     <t>CS-LPR1516-TMO</t>
   </si>
   <si>
@@ -944,127 +518,553 @@
 15/16, with handstrap + lanyard</t>
   </si>
   <si>
-    <t>Metronet</t>
-  </si>
-  <si>
-    <t>77-95220</t>
-  </si>
-  <si>
-    <t>Otterbox</t>
-  </si>
-  <si>
-    <t>iPad Case M3</t>
-  </si>
-  <si>
-    <t>OtterBox Defender Case Blk 11" for iPad</t>
+    <t>HC Bundle</t>
+  </si>
+  <si>
+    <t>Mac Mini M2</t>
+  </si>
+  <si>
+    <t>Z16K000R8</t>
+  </si>
+  <si>
+    <t>CTO MAC MINI M2 8C 10G 16GB 512GB - Gigabit Ethernet</t>
+  </si>
+  <si>
+    <t>Mac Mini 2020</t>
+  </si>
+  <si>
+    <t>MGNR3LL/A</t>
+  </si>
+  <si>
+    <t>APPLE MAC MINI M1 Chip (8GB RAM, 256GB SSD Storage) - 2020</t>
+  </si>
+  <si>
+    <t>Mac Mini 2018</t>
+  </si>
+  <si>
+    <t>MRTT2LL/A</t>
+  </si>
+  <si>
+    <t>APPLE MAC MINI MRTT2LL/A 3.0GHZ INTEL CORE I5 256GB SSD 8GB RAM - SPACE GRAY - 2018</t>
+  </si>
+  <si>
+    <t>Gen 1 HC</t>
+  </si>
+  <si>
+    <t>Bretford</t>
+  </si>
+  <si>
+    <t>TMDRAWER8PRO11</t>
+  </si>
+  <si>
+    <t>Bretford Health Charger Drawer</t>
+  </si>
+  <si>
+    <t>Gen 2 HC</t>
+  </si>
+  <si>
+    <t>TMPSPT20L</t>
+  </si>
+  <si>
+    <t>BRETFORD : PS Pro Gen 2 Smart Hub 20L, T-Mobile Includes:QTY 1 - TMCAB-USB72, QTY 1 - TMCAB-USB72-BC</t>
+  </si>
+  <si>
+    <t>Cabinet Gen 1</t>
+  </si>
+  <si>
+    <t>Gen 1 Cabinet</t>
+  </si>
+  <si>
+    <t>TMCABINET</t>
+  </si>
+  <si>
+    <t>Bretford Health Charger Cabinet</t>
+  </si>
+  <si>
+    <t>Cabinet Gen 2</t>
+  </si>
+  <si>
+    <t>Gen 2 Cabinet</t>
+  </si>
+  <si>
+    <t>TMPSPCAB</t>
+  </si>
+  <si>
+    <t>BRETFORD : PS PRO CABINET, GEN 2, T-MOBILE</t>
+  </si>
+  <si>
+    <t>Rolling Cart Gen 1</t>
+  </si>
+  <si>
+    <t>Gen 1 2-Drawer Cart</t>
+  </si>
+  <si>
+    <t>TMCART-PRO</t>
+  </si>
+  <si>
+    <t>Bretford Health Charger Cart</t>
+  </si>
+  <si>
+    <t>Rolling Cart Gen 2</t>
+  </si>
+  <si>
+    <t>Gen 2 2-Drawer Cart</t>
+  </si>
+  <si>
+    <t>TMPSPCART</t>
+  </si>
+  <si>
+    <t>BRETFORD : PS Pro Cart, Gen 2, T-Mobile</t>
+  </si>
+  <si>
+    <t>Rolling Cart 3-Drawer Gen 1</t>
+  </si>
+  <si>
+    <t>Gen 1 3-Drawer Cart</t>
+  </si>
+  <si>
+    <t>Rolling Cart 3-Drawer Gen 2</t>
+  </si>
+  <si>
+    <t>Gen 2 3-drawer Cart</t>
+  </si>
+  <si>
+    <t>TMPSPCART-3SHLF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRETFORD : PS Pro Cart, Gen 2, 3-shelf </t>
+  </si>
+  <si>
+    <t>iPad Cable</t>
+  </si>
+  <si>
+    <t>iPad Cable Gen 1</t>
+  </si>
+  <si>
+    <t>TMUSBC-PRO</t>
+  </si>
+  <si>
+    <t>iPad Charging Cable</t>
+  </si>
+  <si>
+    <t>iPad Cable Gen 2</t>
+  </si>
+  <si>
+    <t>CAB-MICRO10</t>
+  </si>
+  <si>
+    <t>10 PACK OF CABLES FOR INGENICO MPD</t>
+  </si>
+  <si>
+    <t>MPD Cable</t>
+  </si>
+  <si>
+    <t>MPD Cable Gen 1</t>
+  </si>
+  <si>
+    <t>TMMICRO-REMO</t>
+  </si>
+  <si>
+    <t>MPD Charging Cable</t>
+  </si>
+  <si>
+    <t>CDC</t>
+  </si>
+  <si>
+    <t>CDC Full Kit</t>
+  </si>
+  <si>
+    <t>Drawer JB554-CW1820</t>
+  </si>
+  <si>
+    <t>Drawer T441-7-CW1616</t>
+  </si>
+  <si>
+    <t>RASPPI3B+</t>
+  </si>
+  <si>
+    <t>RASPPIOLED</t>
+  </si>
+  <si>
+    <t>RASPPISMOKEBASE</t>
+  </si>
+  <si>
+    <t>RASPPIPS5V</t>
+  </si>
+  <si>
+    <t>SDCS2/32GB</t>
+  </si>
+  <si>
+    <t>Cable x2 - 28103</t>
+  </si>
+  <si>
+    <t>Cable - 15189</t>
+  </si>
+  <si>
+    <t>SSR</t>
+  </si>
+  <si>
+    <t>SSR Tablet iPad Air G3</t>
+  </si>
+  <si>
+    <t>SSR iPad Air 10.5in</t>
+  </si>
+  <si>
+    <t>MUUQ2LL/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE 10.5-INCH IPAD AIR WI-FI - 3RD GENERATION - TABLET </t>
+  </si>
+  <si>
+    <t>HSI iPad Gen 9</t>
+  </si>
+  <si>
+    <t>HSI/SSR iPad 10.2in</t>
+  </si>
+  <si>
+    <t>MK663LL/A</t>
+  </si>
+  <si>
+    <t>10.2-INCH IPAD WI-FI   CELLULAR 64GB - SPACE GRAY 9TH GEN</t>
+  </si>
+  <si>
+    <t>Device Wizard</t>
+  </si>
+  <si>
+    <t>Dell Headless PC 7080</t>
+  </si>
+  <si>
+    <t>Desktop Gen1</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>210-AVLL</t>
+  </si>
+  <si>
+    <t>OPTIPLEX 7080 MFF XCTO</t>
+  </si>
+  <si>
+    <t>Dell Headless PC 7090</t>
+  </si>
+  <si>
+    <t>Desktop Gen2</t>
+  </si>
+  <si>
+    <t>210-AYVH</t>
+  </si>
+  <si>
+    <t>OPTIPLEX 7090 MICRO</t>
+  </si>
+  <si>
+    <t>Dell Headless PC 7000</t>
+  </si>
+  <si>
+    <t>Desktop Gen3</t>
+  </si>
+  <si>
+    <t>210-BDEJ</t>
+  </si>
+  <si>
+    <t>OPTIPLEX 7000 MICRO</t>
+  </si>
+  <si>
+    <t>Dell Headless PC 7010</t>
+  </si>
+  <si>
+    <t>Desktop Gen4</t>
+  </si>
+  <si>
+    <t>210-BFXT</t>
+  </si>
+  <si>
+    <t>OptiPlex Micro (Plus 7010)</t>
+  </si>
+  <si>
+    <t>Dell Headless PC 7020</t>
+  </si>
+  <si>
+    <t>Desktop Gen5</t>
+  </si>
+  <si>
+    <t>210-BKXM</t>
+  </si>
+  <si>
+    <t>OPTIPLEX MICRO FORM FACTOR (7020)</t>
+  </si>
+  <si>
+    <t>USB HUBs</t>
+  </si>
+  <si>
+    <t>USB HUB</t>
+  </si>
+  <si>
+    <t>MCE</t>
+  </si>
+  <si>
+    <t>MCE HUB KIT INCLUDES:1X MCE HUB, 1X MCE HUB POWER ADAPTER, 1X HUB TO PC CABLE - TRIFECTA</t>
+  </si>
+  <si>
+    <t>3-in-1 Cables</t>
+  </si>
+  <si>
+    <t>3-in-1 Cable</t>
+  </si>
+  <si>
+    <t>MCG</t>
+  </si>
+  <si>
+    <t>MCG-24633</t>
+  </si>
+  <si>
+    <t>Device Wizard - CHARGE CABLE - 18IN USB 3-IN-1 TO USB-A TPE BLA</t>
+  </si>
+  <si>
+    <t>Replacement 3in1 Cable</t>
+  </si>
+  <si>
+    <t>Replacement 3in1 Cable USB-C</t>
+  </si>
+  <si>
+    <t>USB-C Cable - USB 3.0</t>
+  </si>
+  <si>
+    <t>Replacement 3in1 Cable Lightning</t>
+  </si>
+  <si>
+    <t>APL-2 (Apple lightning)</t>
+  </si>
+  <si>
+    <t>Replacement 3in1 Cable Micro-USB</t>
+  </si>
+  <si>
+    <t>MINI-3 Micro-USB Cable</t>
+  </si>
+  <si>
+    <t>Replacement 3in1 Cable USB-C V2</t>
+  </si>
+  <si>
+    <t>MCE USB-C 2.0 CABLE 60CM</t>
+  </si>
+  <si>
+    <t>Replacement 3in1 Cable Lightning V2</t>
+  </si>
+  <si>
+    <t>CABLE APPLE LIGHTNING APL-2 - 60CM</t>
+  </si>
+  <si>
+    <t>Power strip</t>
+  </si>
+  <si>
+    <t>Tripp Lite</t>
+  </si>
+  <si>
+    <t>TLP606B</t>
+  </si>
+  <si>
+    <t>6 WAY POWER STRIP</t>
+  </si>
+  <si>
+    <t>Velcro</t>
+  </si>
+  <si>
+    <t>P350-10N-10</t>
+  </si>
+  <si>
+    <t>Tripp Lite 10in Hook and Loop Velcro Cable Management Ties 10-pack 10pc 10" - Cable tie - 9.8 in - black</t>
+  </si>
+  <si>
+    <t>cat5 cables</t>
+  </si>
+  <si>
+    <t>15ft Cable</t>
+  </si>
+  <si>
+    <t>Ortronics</t>
+  </si>
+  <si>
+    <t>OR-570-110-015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15FT CAT5E 350MHZ BTD PATCH CBL </t>
+  </si>
+  <si>
+    <t>3ft Cable</t>
+  </si>
+  <si>
+    <t>OR-570-110-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3FT CAT5E 350MHZ BTD PATCH CBL </t>
+  </si>
+  <si>
+    <t>USB port covers</t>
+  </si>
+  <si>
+    <t>L-Comm</t>
+  </si>
+  <si>
+    <t>CAPUSB-A</t>
+  </si>
+  <si>
+    <t>USB Protective Cover for Type A Jacks, Package of 10</t>
+  </si>
+  <si>
+    <t>single cables</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>CARE Kit</t>
+  </si>
+  <si>
+    <t>Thin Client</t>
+  </si>
+  <si>
+    <t>817-BBBB</t>
+  </si>
+  <si>
+    <t>WYSE 5070 THIN CLIENT</t>
+  </si>
+  <si>
+    <t>Thin Client Gen2</t>
+  </si>
+  <si>
+    <t>210-BCIJ</t>
+  </si>
+  <si>
+    <t>OptiPlex 3000 Thin Client</t>
+  </si>
+  <si>
+    <t>Keyboard &amp; Mouse</t>
+  </si>
+  <si>
+    <t>LOGITECH</t>
+  </si>
+  <si>
+    <t>920-010923</t>
+  </si>
+  <si>
+    <t>LOGITECH MX KEYS COMBO FOR BUSINESS KEYBOARD &amp; MOUSE - USB WIRELESS BLUETOOTH KEYBOARD - USB WIRELES</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>22in Monitor</t>
+  </si>
+  <si>
+    <t>P2223HC</t>
+  </si>
+  <si>
+    <t>22" USB-C MONITOR 54.6CM (21.5") - INCLUDES 3YR WARRANTY</t>
+  </si>
+  <si>
+    <t>22in Monitor Gen2</t>
+  </si>
+  <si>
+    <t>210-BLXJ</t>
+  </si>
+  <si>
+    <t>DELL 22 MONITOR - P2225H</t>
+  </si>
+  <si>
+    <t>CARE Velcro</t>
+  </si>
+  <si>
+    <t>3/4 in. Black Lineal VELCRO® Brand ONE-WRAP® on 25YD rolls</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>5ft Cable</t>
+  </si>
+  <si>
+    <t>ORTRONICS</t>
+  </si>
+  <si>
+    <t>OR-576-135-005</t>
+  </si>
+  <si>
+    <t>5FT CAT6 BTD PATCH cable Black</t>
+  </si>
+  <si>
+    <t>10ft Cable</t>
+  </si>
+  <si>
+    <t>OR-576-135-010</t>
+  </si>
+  <si>
+    <t>10FT CAT6 BTD PATCH  cable Black</t>
+  </si>
+  <si>
+    <t>USB-A to USB-C Adapter</t>
+  </si>
+  <si>
+    <t>U329-000-10G</t>
+  </si>
+  <si>
+    <t>TRIPP LITE USB-C TO USB-A ADAPTER (F/M), USB 3.2 GEN 2 (10 GBPS) - USB ADAPTER - 24 PIN USB-C (F) TO</t>
+  </si>
+  <si>
+    <t>10ft Displayport Cable</t>
+  </si>
+  <si>
+    <t>C2G</t>
+  </si>
+  <si>
+    <t>10FT C2G DISPLAYPORT CABLE M/M BLK</t>
+  </si>
+  <si>
+    <t>YubiKey</t>
+  </si>
+  <si>
+    <t>C NFC</t>
+  </si>
+  <si>
+    <t>Yubico</t>
+  </si>
+  <si>
+    <t>SECURITY KEY C NFC Black</t>
+  </si>
+  <si>
+    <t>SECURITY KEY C NFC BLACK BY YUBICO - USB-C, INDIVIDUAL BLISTER PACKAGING. FIRMWARE 5.7</t>
+  </si>
+  <si>
+    <t>Prosys Device Type</t>
   </si>
   <si>
     <t>Dispose? Y/N</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
     <t>No longer used, switched over to VeriFone</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>No longer used in AE</t>
+  </si>
+  <si>
     <t>No longer used, Gen3s or Gen4s being used for AE tickets</t>
   </si>
   <si>
-    <t>No longer used in AE</t>
-  </si>
-  <si>
-    <t>MUUQ2LL/A</t>
-  </si>
-  <si>
-    <t>SECURITY KEY C NFC Black</t>
-  </si>
-  <si>
-    <t>CARE Kit</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>No longer used</t>
   </si>
   <si>
-    <t>210-BLXJ</t>
-  </si>
-  <si>
-    <t>USB HUB</t>
-  </si>
-  <si>
-    <t>3-in-1 Cable</t>
-  </si>
-  <si>
-    <t>Replacement 3in1 Cable USB-C</t>
-  </si>
-  <si>
-    <t>Replacement 3in1 Cable Lightning</t>
-  </si>
-  <si>
-    <t>Replacement 3in1 Cable Micro-USB</t>
-  </si>
-  <si>
-    <t>Replacement 3in1 Cable USB-C V2</t>
-  </si>
-  <si>
-    <t>Replacement 3in1 Cable Lightning V2</t>
-  </si>
-  <si>
-    <t>15ft Cable</t>
-  </si>
-  <si>
-    <t>3ft Cable</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>Thin Client Gen2</t>
-  </si>
-  <si>
-    <t>22in Monitor</t>
-  </si>
-  <si>
-    <t>22in Monitor Gen2</t>
-  </si>
-  <si>
-    <t>CARE Velcro</t>
-  </si>
-  <si>
-    <t>5ft Cable</t>
-  </si>
-  <si>
-    <t>10ft Cable</t>
-  </si>
-  <si>
-    <t>C NFC</t>
-  </si>
-  <si>
-    <t>Computacenter Definition</t>
-  </si>
-  <si>
-    <t>Stock moving through Computacenter or Connection that has been assigned a final store destination</t>
-  </si>
-  <si>
-    <t>Material assigned &amp; in process at Computacenter not but shipped out yet</t>
-  </si>
-  <si>
-    <t>Stock moving through Computacenter or Connection that has been assigned a final store destination. Future commitment</t>
-  </si>
-  <si>
-    <t>Stock at Computacenter but not billed to T-Mobile yet</t>
-  </si>
-  <si>
-    <t>Computacenter Device Type</t>
-  </si>
-  <si>
-    <t>Computacenter has not been asked to procure yet</t>
-  </si>
-  <si>
-    <t>2k from Safety Stock shipped to VeriFone for screening</t>
+    <t>Prosys has not been asked to procure yet</t>
+  </si>
+  <si>
+    <t>MUUQ2LL/A </t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1074,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2302,9 +2302,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2342,7 +2342,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2448,7 +2448,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2590,7 +2590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2602,141 +2602,141 @@
   <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="10" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="10" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="20" style="41" customWidth="1"/>
-    <col min="6" max="6" width="43.5546875" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" customWidth="1"/>
-    <col min="9" max="10" width="6.33203125" customWidth="1"/>
-    <col min="11" max="14" width="6.88671875" customWidth="1"/>
-    <col min="15" max="20" width="5.88671875" customWidth="1"/>
-    <col min="21" max="21" width="1.33203125" customWidth="1"/>
-    <col min="22" max="22" width="13.88671875" customWidth="1"/>
-    <col min="23" max="23" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="43.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" customWidth="1"/>
+    <col min="9" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="14" width="6.85546875" customWidth="1"/>
+    <col min="15" max="20" width="5.85546875" customWidth="1"/>
+    <col min="21" max="21" width="1.28515625" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" customWidth="1"/>
+    <col min="23" max="23" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15" thickBot="1">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
       <c r="E1" s="72"/>
       <c r="F1" s="8" t="s">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="G1" s="29"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23">
       <c r="A2" s="17" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
       <c r="E2" s="75"/>
       <c r="F2" s="17" t="s">
-        <v>270</v>
+        <v>5</v>
       </c>
       <c r="G2" s="30"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23">
       <c r="A3" s="18" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>321</v>
+        <v>7</v>
       </c>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
       <c r="E3" s="69"/>
       <c r="F3" s="18" t="s">
-        <v>322</v>
+        <v>8</v>
       </c>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23">
       <c r="A4" s="18" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>323</v>
+        <v>10</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
       <c r="E4" s="69"/>
       <c r="F4" s="18" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="G4" s="30"/>
       <c r="J4" s="49"/>
       <c r="K4" s="49"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23">
       <c r="A5" s="18" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
       <c r="E5" s="69"/>
       <c r="F5" s="18" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23">
       <c r="A6" s="18" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>324</v>
+        <v>16</v>
       </c>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="69"/>
       <c r="F6" s="19" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G6" s="31"/>
       <c r="K6" s="49"/>
       <c r="L6" s="50"/>
       <c r="M6" s="50"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23">
       <c r="A7" s="18" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
       <c r="E7" s="69"/>
       <c r="F7" s="19" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15" thickBot="1">
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
@@ -2748,62 +2748,62 @@
       <c r="S8" s="25"/>
       <c r="T8" s="25"/>
     </row>
-    <row r="9" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="60" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>325</v>
+        <v>23</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="64" t="s">
-        <v>277</v>
+        <v>25</v>
       </c>
       <c r="F9" s="62" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="83" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H9" s="84"/>
       <c r="I9" s="83" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J9" s="84"/>
       <c r="K9" s="83" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="L9" s="84"/>
       <c r="M9" s="83" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="N9" s="84"/>
       <c r="O9" s="83" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="P9" s="84"/>
       <c r="Q9" s="83" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="R9" s="84"/>
       <c r="S9" s="83" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="T9" s="84"/>
       <c r="U9" s="5"/>
       <c r="V9" s="81" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="W9" s="81" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="29.45" thickBot="1">
       <c r="A10" s="61"/>
       <c r="B10" s="61"/>
       <c r="C10" s="63"/>
@@ -2811,69 +2811,69 @@
       <c r="E10" s="65"/>
       <c r="F10" s="63"/>
       <c r="G10" s="24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L10" s="51" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N10" s="51" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="P10" s="51" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="R10" s="51" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="S10" s="24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="T10" s="51" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="82"/>
       <c r="W10" s="82"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23">
       <c r="A11" s="15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" ref="G11:G54" si="0">I11+K11+M11+O11+Q11+S11</f>
@@ -2923,24 +2923,24 @@
       <c r="V11" s="26"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23">
       <c r="A12" s="15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
@@ -2990,24 +2990,24 @@
       <c r="V12" s="26"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23">
       <c r="A13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>234</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>235</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
@@ -3056,27 +3056,27 @@
       <c r="U13" s="21"/>
       <c r="V13" s="26"/>
       <c r="W13" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
@@ -3126,24 +3126,24 @@
       <c r="V14" s="26"/>
       <c r="W14" s="26"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23">
       <c r="A15" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E15" s="55">
         <v>402002934</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
@@ -3193,24 +3193,24 @@
       <c r="V15" s="26"/>
       <c r="W15" s="26"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23">
       <c r="A16" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>236</v>
+        <v>51</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>236</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E16" s="55">
         <v>402015835</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>238</v>
+        <v>52</v>
       </c>
       <c r="G16" s="2">
         <f>I16+K16+M16+O16+Q16+S16</f>
@@ -3260,24 +3260,24 @@
       <c r="V16" s="26"/>
       <c r="W16" s="26"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23">
       <c r="A17" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="0"/>
@@ -3327,24 +3327,24 @@
       <c r="V17" s="26"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23">
       <c r="A18" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>58</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="0"/>
@@ -3394,24 +3394,24 @@
       <c r="V18" s="26"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23">
       <c r="A19" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="0"/>
@@ -3461,24 +3461,24 @@
       <c r="V19" s="26"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23">
       <c r="A20" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="0"/>
@@ -3528,24 +3528,24 @@
       <c r="V20" s="26"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23">
       <c r="A21" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>252</v>
+        <v>70</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>255</v>
+        <v>72</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="0"/>
@@ -3595,24 +3595,24 @@
       <c r="V21" s="26"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23">
       <c r="A22" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="0"/>
@@ -3662,24 +3662,24 @@
       <c r="V22" s="26"/>
       <c r="W22" s="4"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23">
       <c r="A23" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E23" s="43">
         <v>402004482</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="0"/>
@@ -3729,24 +3729,24 @@
       <c r="V23" s="26"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23">
       <c r="A24" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E24" s="55">
         <v>402006129</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="0"/>
@@ -3796,24 +3796,24 @@
       <c r="V24" s="26"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23">
       <c r="A25" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E25" s="55">
         <v>402008559</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="0"/>
@@ -3863,24 +3863,24 @@
       <c r="V25" s="26"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23">
       <c r="A26" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>269</v>
+        <v>88</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E26" s="55">
         <v>402316702</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>257</v>
+        <v>89</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="0"/>
@@ -3930,24 +3930,24 @@
       <c r="V26" s="26"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23">
       <c r="A27" s="9" t="s">
-        <v>287</v>
+        <v>90</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="0"/>
@@ -3997,24 +3997,24 @@
       <c r="V27" s="26"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23">
       <c r="A28" s="9" t="s">
-        <v>287</v>
+        <v>90</v>
       </c>
       <c r="B28" s="77" t="s">
-        <v>290</v>
+        <v>91</v>
       </c>
       <c r="C28" s="77" t="s">
-        <v>290</v>
+        <v>91</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>289</v>
+        <v>92</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>288</v>
+        <v>93</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>291</v>
+        <v>94</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="0"/>
@@ -4064,24 +4064,24 @@
       <c r="V28" s="26"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23">
       <c r="A29" s="9" t="s">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>206</v>
+        <v>97</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="0"/>
@@ -4131,24 +4131,24 @@
       <c r="V29" s="26"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23">
       <c r="A30" s="9" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E30" s="55">
         <v>409904609</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="0"/>
@@ -4198,24 +4198,24 @@
       <c r="V30" s="26"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23">
       <c r="A31" s="9" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="0"/>
@@ -4265,24 +4265,24 @@
       <c r="V31" s="26"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23">
       <c r="A32" s="9" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>326</v>
+        <v>109</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="0"/>
@@ -4332,24 +4332,24 @@
       <c r="V32" s="26"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23">
       <c r="A33" s="9" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>326</v>
+        <v>109</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="0"/>
@@ -4399,24 +4399,24 @@
       <c r="V33" s="26"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23">
       <c r="A34" s="9" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>264</v>
+        <v>112</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>264</v>
+        <v>112</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>265</v>
+        <v>113</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>279</v>
+        <v>114</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="0"/>
@@ -4467,24 +4467,24 @@
       <c r="V34" s="26"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23">
       <c r="A35" s="9" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="0"/>
@@ -4534,24 +4534,24 @@
       <c r="V35" s="26"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="13.9" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="0"/>
@@ -4601,24 +4601,24 @@
       <c r="V36" s="26"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23">
       <c r="A37" s="9" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="0"/>
@@ -4668,24 +4668,24 @@
       <c r="V37" s="26"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23">
       <c r="A38" s="9" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>243</v>
+        <v>128</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="0"/>
@@ -4735,24 +4735,24 @@
       <c r="V38" s="26"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23">
       <c r="A39" s="9" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="0"/>
@@ -4802,24 +4802,24 @@
       <c r="V39" s="26"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23">
       <c r="A40" s="9" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="0"/>
@@ -4869,24 +4869,24 @@
       <c r="V40" s="26"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23">
       <c r="A41" s="9" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>280</v>
+        <v>136</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>280</v>
+        <v>136</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>266</v>
+        <v>137</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>267</v>
+        <v>138</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="0"/>
@@ -4936,24 +4936,24 @@
       <c r="V41" s="26"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23">
       <c r="A42" s="9" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>281</v>
+        <v>139</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>281</v>
+        <v>139</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>283</v>
+        <v>140</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>284</v>
+        <v>141</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="0"/>
@@ -5004,24 +5004,24 @@
       <c r="V42" s="26"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23">
       <c r="A43" s="9" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>282</v>
+        <v>142</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>282</v>
+        <v>142</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>285</v>
+        <v>143</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="0"/>
@@ -5072,24 +5072,24 @@
       <c r="V43" s="26"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23">
       <c r="A44" s="9" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="0"/>
@@ -5139,24 +5139,24 @@
       <c r="V44" s="26"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23">
       <c r="A45" s="9" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="0"/>
@@ -5206,24 +5206,24 @@
       <c r="V45" s="26"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23">
       <c r="A46" s="9" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E46" s="44" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="0"/>
@@ -5273,24 +5273,24 @@
       <c r="V46" s="26"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23">
       <c r="A47" s="9" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="0"/>
@@ -5340,24 +5340,24 @@
       <c r="V47" s="26"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23">
       <c r="A48" s="9" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" si="0"/>
@@ -5407,24 +5407,24 @@
       <c r="V48" s="26"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23">
       <c r="A49" s="9" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>272</v>
+        <v>163</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="0"/>
@@ -5474,24 +5474,24 @@
       <c r="V49" s="26"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23">
       <c r="A50" s="9" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="0"/>
@@ -5541,24 +5541,24 @@
       <c r="V50" s="26"/>
       <c r="W50" s="4"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23">
       <c r="A51" s="9" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E51" s="44" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" si="0"/>
@@ -5608,24 +5608,24 @@
       <c r="V51" s="26"/>
       <c r="W51" s="4"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23">
       <c r="A52" s="9" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E52" s="44" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" si="0"/>
@@ -5675,24 +5675,24 @@
       <c r="V52" s="26"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23">
       <c r="A53" s="9" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E53" s="44" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>326</v>
+        <v>109</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" si="0"/>
@@ -5742,24 +5742,24 @@
       <c r="V53" s="26"/>
       <c r="W53" s="4"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23">
       <c r="A54" s="9" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E54" s="44" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" si="0"/>
@@ -5809,24 +5809,24 @@
       <c r="V54" s="26"/>
       <c r="W54" s="4"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23">
       <c r="A55" s="9" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E55" s="44" t="s">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="G55" s="2">
         <f>I55+K55+M55+O55+Q55+S55</f>
@@ -5876,24 +5876,24 @@
       <c r="V55" s="26"/>
       <c r="W55" s="4"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23">
       <c r="A56" s="9" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E56" s="44" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" ref="G56:G98" si="2">I56+K56+M56+O56+Q56+S56</f>
@@ -5943,24 +5943,24 @@
       <c r="V56" s="26"/>
       <c r="W56" s="4"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23">
       <c r="A57" s="9" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="E57" s="44" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="G57" s="2">
         <f t="shared" si="2"/>
@@ -6010,24 +6010,24 @@
       <c r="V57" s="26"/>
       <c r="W57" s="4"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23">
       <c r="A58" s="9" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E58" s="44" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>326</v>
+        <v>109</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" si="2"/>
@@ -6077,24 +6077,24 @@
       <c r="V58" s="26"/>
       <c r="W58" s="4"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23">
       <c r="A59" s="9" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E59" s="44" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>326</v>
+        <v>109</v>
       </c>
       <c r="G59" s="2">
         <f t="shared" si="2"/>
@@ -6144,24 +6144,24 @@
       <c r="V59" s="26"/>
       <c r="W59" s="4"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23">
       <c r="A60" s="9" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E60" s="44" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>326</v>
+        <v>109</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" si="2"/>
@@ -6211,24 +6211,24 @@
       <c r="V60" s="26"/>
       <c r="W60" s="4"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23">
       <c r="A61" s="9" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E61" s="44" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>326</v>
+        <v>109</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="2"/>
@@ -6278,24 +6278,24 @@
       <c r="V61" s="26"/>
       <c r="W61" s="4"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23">
       <c r="A62" s="9" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E62" s="44" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>326</v>
+        <v>109</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" si="2"/>
@@ -6345,24 +6345,24 @@
       <c r="V62" s="26"/>
       <c r="W62" s="4"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23">
       <c r="A63" s="9" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E63" s="44" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>326</v>
+        <v>109</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" si="2"/>
@@ -6412,24 +6412,24 @@
       <c r="V63" s="26"/>
       <c r="W63" s="4"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23">
       <c r="A64" s="9" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E64" s="44" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>326</v>
+        <v>109</v>
       </c>
       <c r="G64" s="2">
         <f t="shared" si="2"/>
@@ -6479,24 +6479,24 @@
       <c r="V64" s="26"/>
       <c r="W64" s="4"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23">
       <c r="A65" s="9" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E65" s="44" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>326</v>
+        <v>109</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" si="2"/>
@@ -6546,24 +6546,24 @@
       <c r="V65" s="26"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23">
       <c r="A66" s="9" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E66" s="44" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>326</v>
+        <v>109</v>
       </c>
       <c r="G66" s="2">
         <f t="shared" si="2"/>
@@ -6613,24 +6613,24 @@
       <c r="V66" s="26"/>
       <c r="W66" s="4"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23">
       <c r="A67" s="9" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E67" s="44" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>326</v>
+        <v>109</v>
       </c>
       <c r="G67" s="2">
         <f t="shared" si="2"/>
@@ -6680,24 +6680,24 @@
       <c r="V67" s="26"/>
       <c r="W67" s="4"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23">
       <c r="A68" s="9" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E68" s="44" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="G68" s="2">
         <f t="shared" si="2"/>
@@ -6747,24 +6747,24 @@
       <c r="V68" s="26"/>
       <c r="W68" s="4"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23">
       <c r="A69" s="32" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E69" s="44" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="G69" s="2">
         <f t="shared" si="2"/>
@@ -6814,24 +6814,24 @@
       <c r="V69" s="26"/>
       <c r="W69" s="4"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23">
       <c r="A70" s="33" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="E70" s="45" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="G70" s="2">
         <f t="shared" si="2"/>
@@ -6881,24 +6881,24 @@
       <c r="V70" s="26"/>
       <c r="W70" s="11"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23">
       <c r="A71" s="33" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>137</v>
+        <v>222</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="E71" s="45" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="G71" s="2">
         <f t="shared" si="2"/>
@@ -6948,24 +6948,24 @@
       <c r="V71" s="26"/>
       <c r="W71" s="11"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23">
       <c r="A72" s="33" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="E72" s="45" t="s">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="G72" s="2">
         <f t="shared" si="2"/>
@@ -7015,24 +7015,24 @@
       <c r="V72" s="26"/>
       <c r="W72" s="11"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23">
       <c r="A73" s="33" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="E73" s="45" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="G73" s="2">
         <f t="shared" si="2"/>
@@ -7082,24 +7082,24 @@
       <c r="V73" s="26"/>
       <c r="W73" s="11"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23">
       <c r="A74" s="33" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="E74" s="45" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" si="2"/>
@@ -7149,24 +7149,24 @@
       <c r="V74" s="26"/>
       <c r="W74" s="11"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23">
       <c r="A75" s="33" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>303</v>
+        <v>238</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="E75" s="59">
         <v>10050601</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="G75" s="2">
         <f t="shared" si="2"/>
@@ -7216,24 +7216,24 @@
       <c r="V75" s="26"/>
       <c r="W75" s="11"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23">
       <c r="A76" s="33" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>149</v>
+        <v>243</v>
       </c>
       <c r="E76" s="45" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="G76" s="2">
         <f t="shared" si="2"/>
@@ -7283,24 +7283,24 @@
       <c r="V76" s="26"/>
       <c r="W76" s="11"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23">
       <c r="A77" s="33" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>163</v>
+        <v>246</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>305</v>
+        <v>247</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="E77" s="59">
         <v>10019994</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
       <c r="G77" s="2">
         <f t="shared" si="2"/>
@@ -7350,24 +7350,24 @@
       <c r="V77" s="26"/>
       <c r="W77" s="11"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23">
       <c r="A78" s="33" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>163</v>
+        <v>246</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="E78" s="59">
         <v>10001999</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="G78" s="2">
         <f t="shared" si="2"/>
@@ -7417,24 +7417,24 @@
       <c r="V78" s="26"/>
       <c r="W78" s="11"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23">
       <c r="A79" s="33" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>163</v>
+        <v>246</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="E79" s="59">
         <v>10019993</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="G79" s="2">
         <f t="shared" si="2"/>
@@ -7484,24 +7484,24 @@
       <c r="V79" s="26"/>
       <c r="W79" s="11"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23">
       <c r="A80" s="33" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>163</v>
+        <v>246</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="E80" s="59">
         <v>100199900</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="G80" s="2">
         <f t="shared" si="2"/>
@@ -7551,24 +7551,24 @@
       <c r="V80" s="26"/>
       <c r="W80" s="11"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23">
       <c r="A81" s="33" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>163</v>
+        <v>246</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="E81" s="59">
         <v>10019996</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G81" s="2">
         <f t="shared" si="2"/>
@@ -7618,24 +7618,24 @@
       <c r="V81" s="26"/>
       <c r="W81" s="11"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23">
       <c r="A82" s="33" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>130</v>
+        <v>257</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>130</v>
+        <v>257</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="E82" s="45" t="s">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>154</v>
+        <v>260</v>
       </c>
       <c r="G82" s="2">
         <f t="shared" si="2"/>
@@ -7685,24 +7685,24 @@
       <c r="V82" s="26"/>
       <c r="W82" s="11"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23">
       <c r="A83" s="33" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="E83" s="45" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" si="2"/>
@@ -7752,24 +7752,24 @@
       <c r="V83" s="26"/>
       <c r="W83" s="11"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23">
       <c r="A84" s="33" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>151</v>
+        <v>266</v>
       </c>
       <c r="E84" s="45" t="s">
-        <v>152</v>
+        <v>267</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="G84" s="2">
         <f t="shared" si="2"/>
@@ -7819,24 +7819,24 @@
       <c r="V84" s="26"/>
       <c r="W84" s="11"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23">
       <c r="A85" s="33" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>151</v>
+        <v>266</v>
       </c>
       <c r="E85" s="45" t="s">
-        <v>164</v>
+        <v>270</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>155</v>
+        <v>271</v>
       </c>
       <c r="G85" s="2">
         <f t="shared" si="2"/>
@@ -7886,24 +7886,24 @@
       <c r="V85" s="26"/>
       <c r="W85" s="11"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23">
       <c r="A86" s="33" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>204</v>
+        <v>272</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>204</v>
+        <v>272</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="E86" s="45" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>170</v>
+        <v>275</v>
       </c>
       <c r="G86" s="2">
         <f t="shared" si="2"/>
@@ -7953,24 +7953,24 @@
       <c r="V86" s="26"/>
       <c r="W86" s="11"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23">
       <c r="A87" s="33" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E87" s="45" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>326</v>
+        <v>109</v>
       </c>
       <c r="G87" s="2">
         <f t="shared" si="2"/>
@@ -8020,24 +8020,24 @@
       <c r="V87" s="26"/>
       <c r="W87" s="11"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23">
       <c r="A88" s="33" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="C88" s="36" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="E88" s="45" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="G88" s="2">
         <f t="shared" si="2"/>
@@ -8087,24 +8087,24 @@
       <c r="V88" s="26"/>
       <c r="W88" s="11"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23">
       <c r="A89" s="33" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="C89" s="36" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="E89" s="45" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="G89" s="2">
         <f t="shared" si="2"/>
@@ -8154,24 +8154,24 @@
       <c r="V89" s="26"/>
       <c r="W89" s="11"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23">
       <c r="A90" s="33" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="C90" s="36" t="s">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="E90" s="46" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="G90" s="2">
         <f t="shared" si="2"/>
@@ -8221,24 +8221,24 @@
       <c r="V90" s="26"/>
       <c r="W90" s="11"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23">
       <c r="A91" s="33" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="C91" s="36" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="E91" s="46" t="s">
-        <v>219</v>
+        <v>291</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>217</v>
+        <v>292</v>
       </c>
       <c r="G91" s="2">
         <f t="shared" si="2"/>
@@ -8288,24 +8288,24 @@
       <c r="V91" s="26"/>
       <c r="W91" s="11"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23">
       <c r="A92" s="33" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="C92" s="36" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="E92" s="46" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="G92" s="2">
         <f t="shared" si="2"/>
@@ -8355,24 +8355,24 @@
       <c r="V92" s="26"/>
       <c r="W92" s="11"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23">
       <c r="A93" s="33" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="E93" s="59">
         <v>31086</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>225</v>
+        <v>297</v>
       </c>
       <c r="G93" s="2">
         <f t="shared" si="2"/>
@@ -8422,24 +8422,24 @@
       <c r="V93" s="26"/>
       <c r="W93" s="11"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23">
       <c r="A94" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="C94" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="B94" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="C94" s="36" t="s">
-        <v>317</v>
-      </c>
       <c r="D94" s="11" t="s">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="E94" s="46" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>227</v>
+        <v>302</v>
       </c>
       <c r="G94" s="2">
         <f t="shared" si="2"/>
@@ -8489,24 +8489,24 @@
       <c r="V94" s="26"/>
       <c r="W94" s="11"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23">
       <c r="A95" s="33" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D95" s="38" t="s">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="E95" s="47" t="s">
-        <v>221</v>
+        <v>304</v>
       </c>
       <c r="F95" s="38" t="s">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" si="2"/>
@@ -8556,24 +8556,24 @@
       <c r="V95" s="26"/>
       <c r="W95" s="38"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23">
       <c r="A96" s="33" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="C96" s="36" t="s">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="E96" s="45" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="G96" s="2">
         <f t="shared" si="2"/>
@@ -8623,24 +8623,24 @@
       <c r="V96" s="26"/>
       <c r="W96" s="11"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23">
       <c r="A97" s="33" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
       <c r="C97" s="36" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>231</v>
+        <v>310</v>
       </c>
       <c r="E97" s="59">
         <v>54402</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="G97" s="2">
         <f t="shared" si="2"/>
@@ -8690,24 +8690,24 @@
       <c r="V97" s="26"/>
       <c r="W97" s="11"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23">
       <c r="A98" s="33" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="C98" s="36" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>240</v>
+        <v>314</v>
       </c>
       <c r="E98" s="46" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="G98" s="2">
         <f t="shared" si="2"/>
@@ -8784,1462 +8784,1462 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="102.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="102.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.9">
       <c r="A1" s="78" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>107</v>
+        <v>317</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="79" t="s">
-        <v>277</v>
+        <v>25</v>
       </c>
       <c r="F1" s="78" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="80" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>234</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>235</v>
+        <v>43</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="H4" s="52"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E6" s="55">
         <v>402002934</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>236</v>
+        <v>51</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>236</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E7" s="55">
         <v>402015835</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>238</v>
+        <v>52</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="H7" s="52"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="F9" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="76" t="s">
-        <v>58</v>
-      </c>
       <c r="G9" s="52" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E10" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H10" s="52"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>105</v>
-      </c>
       <c r="F11" s="76" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="H11" s="52"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>252</v>
+        <v>70</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>255</v>
+        <v>72</v>
       </c>
       <c r="F12" s="76" t="s">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="H12" s="52"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="F13" s="76" t="s">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="H13" s="52"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E14" s="55">
         <v>402004482</v>
       </c>
       <c r="F14" s="76" t="s">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E15" s="55">
         <v>402006129</v>
       </c>
       <c r="F15" s="76" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E16" s="55">
         <v>402008559</v>
       </c>
       <c r="F16" s="76" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="H16" s="52"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>269</v>
+        <v>88</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E17" s="55">
         <v>402316702</v>
       </c>
       <c r="F17" s="76" t="s">
-        <v>257</v>
+        <v>89</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="H17" s="52"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="9" t="s">
-        <v>287</v>
+        <v>90</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>290</v>
+        <v>91</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>290</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>289</v>
+        <v>92</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>288</v>
+        <v>93</v>
       </c>
       <c r="F18" s="76" t="s">
-        <v>291</v>
+        <v>94</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="H18" s="52"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="9" t="s">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>206</v>
+        <v>97</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="F19" s="76" t="s">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E20" s="55">
         <v>409904609</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G20" s="52" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="H20" s="52"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="9" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H21" s="52"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H22" s="52"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H23" s="52"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H21" s="52"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H22" s="52"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H23" s="52"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="E24" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H24" s="52"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H25" s="52"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H26" s="52"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H28" s="52"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H29" s="52"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H30" s="52"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H31" s="52"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H32" s="52"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H33" s="52"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H34" s="52"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H37" s="52"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H38" s="52"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H24" s="52"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="G39" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H39" s="52"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H40" s="52"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="44" t="s">
+      <c r="D41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H41" s="52"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="C42" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G42" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H42" s="52"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H43" s="52"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G44" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H44" s="52"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H45" s="52"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G46" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H46" s="52"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G47" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H47" s="52"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G48" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H48" s="52"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G49" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H49" s="52"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G50" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H50" s="52"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G51" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H51" s="52"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G52" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H52" s="52"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G53" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H53" s="52"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G54" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H54" s="52"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G55" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H55" s="52"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H56" s="52"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G57" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H57" s="52"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G25" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H25" s="52"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H26" s="52"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G27" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H28" s="52"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H29" s="52"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H30" s="52"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="44" t="s">
-        <v>266</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G31" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H31" s="52"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H32" s="52"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="44" t="s">
-        <v>285</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H33" s="52"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G34" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H34" s="52"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G35" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H37" s="52"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G38" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H38" s="52"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H39" s="52"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H40" s="52"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H41" s="52"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G42" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H42" s="52"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H43" s="52"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G44" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H44" s="52"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G45" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H45" s="52"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H46" s="52"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G47" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H47" s="52"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G48" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H48" s="52"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G49" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H49" s="52"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H50" s="52"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H51" s="52"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G52" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H52" s="52"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G53" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H53" s="52"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G54" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H54" s="52"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G55" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H55" s="52"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G56" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H56" s="52"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G57" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H57" s="52"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G58" s="52" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="9" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E59" s="44" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="G59" s="52" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -10249,47 +10249,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fba20ef3-1fbc-405c-afa7-515068935a66">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19a73785-e5af-4f39-a513-2f49b24a1cd0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E21FB1C2E5932341A57F0E6374122B92" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5357fa2b24190a2fc0040a04c78e2643">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fba20ef3-1fbc-405c-afa7-515068935a66" xmlns:ns3="19a73785-e5af-4f39-a513-2f49b24a1cd0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b77fd0aac5469d3229bfd8e666b26c1" ns2:_="" ns3:_="">
-    <xsd:import namespace="fba20ef3-1fbc-405c-afa7-515068935a66"/>
-    <xsd:import namespace="19a73785-e5af-4f39-a513-2f49b24a1cd0"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B3EF407E181BA418053C57984BF3DBB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e836601d71d97b3068fb16d4ed2921f5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="89775d9c-a4cc-40ab-af53-0ca264b207aa" xmlns:ns3="37f4dda4-72b4-4394-9b01-81a120ed1799" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c766740b21f1080069dbde628dfda85" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="89775d9c-a4cc-40ab-af53-0ca264b207aa"/>
+    <xsd:import namespace="37f4dda4-72b4-4394-9b01-81a120ed1799"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -10297,68 +10282,50 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fba20ef3-1fbc-405c-afa7-515068935a66" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="22" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="23" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="1214736f-a3b9-40ab-95fc-a78cbb49bfc1" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="89775d9c-a4cc-40ab-af53-0ca264b207aa" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="19a73785-e5af-4f39-a513-2f49b24a1cd0" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{09c8e3d6-2350-42cc-bf74-34bad1d7766f}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="19a73785-e5af-4f39-a513-2f49b24a1cd0">
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{2eda3d40-2781-4904-a307-b19c3bbc1d58}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="89775d9c-a4cc-40ab-af53-0ca264b207aa">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -10368,6 +10335,64 @@
           </xsd:extension>
         </xsd:complexContent>
       </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="37f4dda4-72b4-4394-9b01-81a120ed1799" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="8f2c06f6-5083-4159-babb-c09886256be4" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="19" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -10469,52 +10494,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="37f4dda4-72b4-4394-9b01-81a120ed1799">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="89775d9c-a4cc-40ab-af53-0ca264b207aa" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E61B09D-8ED6-42F9-8855-6EA7865C4CF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fba20ef3-1fbc-405c-afa7-515068935a66"/>
-    <ds:schemaRef ds:uri="19a73785-e5af-4f39-a513-2f49b24a1cd0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AE3AE1A-65F1-4B13-99A3-86C0B65DDB73}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{026D9F05-73A4-4893-90C1-C402668E3717}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E61B09D-8ED6-42F9-8855-6EA7865C4CF4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7599DDF4-BB18-47D4-9B38-B654305D6031}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fba20ef3-1fbc-405c-afa7-515068935a66"/>
-    <ds:schemaRef ds:uri="19a73785-e5af-4f39-a513-2f49b24a1cd0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{026D9F05-73A4-4893-90C1-C402668E3717}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{7af72c41-31f4-4d40-a6d0-808117dc4d77}" enabled="1" method="Standard" siteId="{be0f980b-dd99-4b19-bd7b-bc71a09b026c}" contentBits="0" removed="0"/>
+  <clbl:label id="{7af72c41-31f4-4d40-a6d0-808117dc4d77}" enabled="1" method="Standard" siteId="{be0f980b-dd99-4b19-bd7b-bc71a09b026c}" removed="0"/>
 </clbl:labelList>
 </file>